--- a/data/dur_sec.xlsx
+++ b/data/dur_sec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c2bddebcd58e8e8/UNI/2020 S2/STAT3199/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommi\Time-use-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD54A146-055A-4EC3-BFE8-C098359EF870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72DF093-F979-41E6-A396-8E34025D0217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97FAD0D5-E07D-4377-935D-7E5B1FB5944E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Respondent</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>During</t>
   </si>
 </sst>
 </file>
@@ -492,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4978F61D-8E85-4E6C-AA57-4E744F1D4C4D}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="AA2" sqref="AA2:AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +585,11 @@
       <c r="Z1" t="s">
         <v>35</v>
       </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -659,8 +668,11 @@
       <c r="Z2">
         <v>11</v>
       </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -701,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.833333333333333</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -739,8 +751,11 @@
       <c r="Z3">
         <v>12</v>
       </c>
+      <c r="AA3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -817,10 +832,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -897,10 +915,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -941,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.1666666666666661</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -979,8 +1000,11 @@
       <c r="Z6">
         <v>5.833333333333333</v>
       </c>
+      <c r="AA6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1057,10 +1081,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2.5</v>
+        <v>15</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1098,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7.1666666666666661</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1139,8 +1166,11 @@
       <c r="Z8">
         <v>2.6666666666666665</v>
       </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1217,10 +1247,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>15.666666666666668</v>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1299,8 +1332,11 @@
       <c r="Z10">
         <v>2.5</v>
       </c>
+      <c r="AA10" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1341,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.8333333333333335</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1359,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1.8333333333333335</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1379,8 +1415,11 @@
       <c r="Z11">
         <v>11.833333333333334</v>
       </c>
+      <c r="AA11" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -1418,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1430,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3.666666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1459,8 +1498,11 @@
       <c r="Z12">
         <v>17.166666666666668</v>
       </c>
+      <c r="AA12" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -1501,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.833333333333333</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1539,8 +1581,11 @@
       <c r="Z13">
         <v>10</v>
       </c>
+      <c r="AA13" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1617,10 +1662,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>16.833333333333332</v>
+        <v>14</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -1658,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1697,10 +1745,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.33333333333333331</v>
+        <v>22.5</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1741,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.833333333333332</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1777,7 +1828,10 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>8.1666666666666679</v>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
